--- a/data/markov/Power_Demand.xlsx
+++ b/data/markov/Power_Demand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77770F03-012E-439D-BB3E-98059DD1E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7098EFB4-8B8D-4D2E-9699-AD781647DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Power Demand'!#REF!</definedName>
     <definedName name="businfo">#REF!</definedName>
-    <definedName name="demand">'Power Demand'!$B$6:$AA$19</definedName>
+    <definedName name="demand">'Power Demand'!$B$6:$AA$11</definedName>
     <definedName name="dsmdelaytime">#REF!</definedName>
     <definedName name="dsmprofiles">#REF!</definedName>
     <definedName name="dsmshed">#REF!</definedName>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>rp01</t>
   </si>
@@ -239,12 +239,6 @@
   </si>
   <si>
     <t>Node_1</t>
-  </si>
-  <si>
-    <t>Node_2</t>
-  </si>
-  <si>
-    <t>Node_3</t>
   </si>
   <si>
     <t>The hourly demand stems from APG and is scaled up to the demand specified in the Gesamtenergiebilanz from Statistic Austria, which is not available any longer.</t>
@@ -793,10 +787,10 @@
   <sheetPr codeName="Hoja10">
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:AB25"/>
+  <dimension ref="B1:AB17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,12 +803,12 @@
     <col min="28" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
@@ -888,9 +882,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -916,9 +910,9 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -944,9 +938,9 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -972,7 +966,7 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -980,1299 +974,397 @@
         <v>28</v>
       </c>
       <c r="D7" s="9">
-        <f>Sheet1!I7</f>
-        <v>672.60519999999997</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="E7" s="9">
-        <f>D7-Sheet1!$K7</f>
-        <v>661.5079130434782</v>
+        <v>1411.2168826086956</v>
       </c>
       <c r="F7" s="9">
-        <f>E7-Sheet1!$K7</f>
-        <v>650.41062608695643</v>
+        <v>1387.5426652173912</v>
       </c>
       <c r="G7" s="9">
-        <f>F7-Sheet1!$K7</f>
-        <v>639.31333913043466</v>
+        <v>1363.868447826087</v>
       </c>
       <c r="H7" s="9">
-        <f>G7-Sheet1!$K7</f>
-        <v>628.21605217391289</v>
+        <v>1340.1942304347826</v>
       </c>
       <c r="I7" s="9">
-        <f>H7-Sheet1!$K7</f>
-        <v>617.11876521739111</v>
+        <v>1316.5200130434782</v>
       </c>
       <c r="J7" s="9">
-        <f>I7-Sheet1!$K7</f>
-        <v>606.02147826086934</v>
+        <v>1292.8457956521738</v>
       </c>
       <c r="K7" s="9">
-        <f>J7-Sheet1!$K7</f>
-        <v>594.92419130434757</v>
+        <v>1269.1715782608696</v>
       </c>
       <c r="L7" s="9">
-        <f>K7-Sheet1!$K7</f>
-        <v>583.8269043478258</v>
+        <v>1245.497360869565</v>
       </c>
       <c r="M7" s="9">
-        <f>L7-Sheet1!$K7</f>
-        <v>572.72961739130403</v>
+        <v>1221.8231434782608</v>
       </c>
       <c r="N7" s="9">
-        <f>M7-Sheet1!$K7</f>
-        <v>561.63233043478226</v>
+        <v>1198.1489260869564</v>
       </c>
       <c r="O7" s="9">
-        <f>N7-Sheet1!$K7</f>
-        <v>550.53504347826049</v>
+        <v>1174.4747086956522</v>
       </c>
       <c r="P7" s="9">
-        <f>O7-Sheet1!$K7</f>
-        <v>539.43775652173872</v>
+        <v>1150.8004913043478</v>
       </c>
       <c r="Q7" s="9">
-        <f>P7-Sheet1!$K7</f>
-        <v>528.34046956521695</v>
+        <v>1127.1262739130434</v>
       </c>
       <c r="R7" s="9">
-        <f>Q7-Sheet1!$K7</f>
-        <v>517.24318260869518</v>
+        <v>1103.452056521739</v>
       </c>
       <c r="S7" s="9">
-        <f>R7-Sheet1!$K7</f>
-        <v>506.14589565217346</v>
+        <v>1079.7778391304346</v>
       </c>
       <c r="T7" s="9">
-        <f>S7-Sheet1!$K7</f>
-        <v>495.04860869565175</v>
+        <v>1056.1036217391302</v>
       </c>
       <c r="U7" s="9">
-        <f>T7-Sheet1!$K7</f>
-        <v>483.95132173913004</v>
+        <v>1032.429404347826</v>
       </c>
       <c r="V7" s="9">
-        <f>U7-Sheet1!$K7</f>
-        <v>472.85403478260832</v>
+        <v>1008.7551869565217</v>
       </c>
       <c r="W7" s="9">
-        <f>V7-Sheet1!$K7</f>
-        <v>461.75674782608661</v>
+        <v>985.0809695652174</v>
       </c>
       <c r="X7" s="9">
-        <f>W7-Sheet1!$K7</f>
-        <v>450.6594608695649</v>
+        <v>961.40675217391299</v>
       </c>
       <c r="Y7" s="9">
-        <f>X7-Sheet1!$K7</f>
-        <v>439.56217391304318</v>
+        <v>937.73253478260858</v>
       </c>
       <c r="Z7" s="9">
-        <f>Y7-Sheet1!$K7</f>
-        <v>428.46488695652147</v>
+        <v>914.0583173913044</v>
       </c>
       <c r="AA7" s="9">
-        <f>Z7-Sheet1!$K7</f>
-        <v>417.36759999999975</v>
+        <v>890.38409999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9">
-        <f>Sheet1!I8</f>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="E8" s="9">
-        <f>D8-Sheet1!$K8</f>
-        <v>308.70366521739135</v>
-      </c>
-      <c r="F8" s="9">
-        <f>E8-Sheet1!$K8</f>
-        <v>303.52493043478268</v>
-      </c>
-      <c r="G8" s="9">
-        <f>F8-Sheet1!$K8</f>
-        <v>298.346195652174</v>
-      </c>
-      <c r="H8" s="9">
-        <f>G8-Sheet1!$K8</f>
-        <v>293.16746086956533</v>
-      </c>
-      <c r="I8" s="9">
-        <f>H8-Sheet1!$K8</f>
-        <v>287.98872608695666</v>
-      </c>
-      <c r="J8" s="9">
-        <f>I8-Sheet1!$K8</f>
-        <v>282.80999130434799</v>
-      </c>
-      <c r="K8" s="9">
-        <f>J8-Sheet1!$K8</f>
-        <v>277.63125652173932</v>
-      </c>
-      <c r="L8" s="9">
-        <f>K8-Sheet1!$K8</f>
-        <v>272.45252173913065</v>
-      </c>
-      <c r="M8" s="9">
-        <f>L8-Sheet1!$K8</f>
-        <v>267.27378695652197</v>
-      </c>
-      <c r="N8" s="9">
-        <f>M8-Sheet1!$K8</f>
-        <v>262.0950521739133</v>
-      </c>
-      <c r="O8" s="9">
-        <f>N8-Sheet1!$K8</f>
-        <v>256.91631739130463</v>
-      </c>
-      <c r="P8" s="9">
-        <f>O8-Sheet1!$K8</f>
-        <v>251.73758260869593</v>
-      </c>
-      <c r="Q8" s="9">
-        <f>P8-Sheet1!$K8</f>
-        <v>246.55884782608723</v>
-      </c>
-      <c r="R8" s="9">
-        <f>Q8-Sheet1!$K8</f>
-        <v>241.38011304347853</v>
-      </c>
-      <c r="S8" s="9">
-        <f>R8-Sheet1!$K8</f>
-        <v>236.20137826086983</v>
-      </c>
-      <c r="T8" s="9">
-        <f>S8-Sheet1!$K8</f>
-        <v>231.02264347826113</v>
-      </c>
-      <c r="U8" s="9">
-        <f>T8-Sheet1!$K8</f>
-        <v>225.84390869565243</v>
-      </c>
-      <c r="V8" s="9">
-        <f>U8-Sheet1!$K8</f>
-        <v>220.66517391304373</v>
-      </c>
-      <c r="W8" s="9">
-        <f>V8-Sheet1!$K8</f>
-        <v>215.48643913043503</v>
-      </c>
-      <c r="X8" s="9">
-        <f>W8-Sheet1!$K8</f>
-        <v>210.30770434782633</v>
-      </c>
-      <c r="Y8" s="9">
-        <f>X8-Sheet1!$K8</f>
-        <v>205.12896956521763</v>
-      </c>
-      <c r="Z8" s="9">
-        <f>Y8-Sheet1!$K8</f>
-        <v>199.95023478260893</v>
-      </c>
-      <c r="AA8" s="9">
-        <f>Z8-Sheet1!$K8</f>
-        <v>194.77150000000023</v>
+        <v>890.38409999999999</v>
+      </c>
+      <c r="E8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="F8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="G8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="H8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="I8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="J8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="K8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="L8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="M8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="N8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="O8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="P8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="R8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="S8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="T8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="U8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="V8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="W8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="X8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>890.38409999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9">
-        <f>Sheet1!I9</f>
-        <v>448.40350000000001</v>
+        <v>890.38409999999999</v>
       </c>
       <c r="E9" s="9">
-        <f>D9-Sheet1!$K9</f>
-        <v>441.0053043478261</v>
+        <v>914.0583173913044</v>
       </c>
       <c r="F9" s="9">
-        <f>E9-Sheet1!$K9</f>
-        <v>433.60710869565219</v>
+        <v>937.73253478260858</v>
       </c>
       <c r="G9" s="9">
-        <f>F9-Sheet1!$K9</f>
-        <v>426.20891304347828</v>
+        <v>961.40675217391299</v>
       </c>
       <c r="H9" s="9">
-        <f>G9-Sheet1!$K9</f>
-        <v>418.81071739130437</v>
+        <v>985.08096956521729</v>
       </c>
       <c r="I9" s="9">
-        <f>H9-Sheet1!$K9</f>
-        <v>411.41252173913045</v>
+        <v>1008.7551869565216</v>
       </c>
       <c r="J9" s="9">
-        <f>I9-Sheet1!$K9</f>
-        <v>404.01432608695654</v>
+        <v>1032.429404347826</v>
       </c>
       <c r="K9" s="9">
-        <f>J9-Sheet1!$K9</f>
-        <v>396.61613043478263</v>
+        <v>1056.1036217391302</v>
       </c>
       <c r="L9" s="9">
-        <f>K9-Sheet1!$K9</f>
-        <v>389.21793478260872</v>
+        <v>1079.7778391304346</v>
       </c>
       <c r="M9" s="9">
-        <f>L9-Sheet1!$K9</f>
-        <v>381.81973913043481</v>
+        <v>1103.452056521739</v>
       </c>
       <c r="N9" s="9">
-        <f>M9-Sheet1!$K9</f>
-        <v>374.4215434782609</v>
+        <v>1127.1262739130434</v>
       </c>
       <c r="O9" s="9">
-        <f>N9-Sheet1!$K9</f>
-        <v>367.02334782608699</v>
+        <v>1150.8004913043476</v>
       </c>
       <c r="P9" s="9">
-        <f>O9-Sheet1!$K9</f>
-        <v>359.62515217391308</v>
+        <v>1174.4747086956522</v>
       </c>
       <c r="Q9" s="9">
-        <f>P9-Sheet1!$K9</f>
-        <v>352.22695652173917</v>
+        <v>1198.1489260869564</v>
       </c>
       <c r="R9" s="9">
-        <f>Q9-Sheet1!$K9</f>
-        <v>344.82876086956526</v>
+        <v>1221.8231434782608</v>
       </c>
       <c r="S9" s="9">
-        <f>R9-Sheet1!$K9</f>
-        <v>337.43056521739135</v>
+        <v>1245.497360869565</v>
       </c>
       <c r="T9" s="9">
-        <f>S9-Sheet1!$K9</f>
-        <v>330.03236956521744</v>
+        <v>1269.1715782608694</v>
       </c>
       <c r="U9" s="9">
-        <f>T9-Sheet1!$K9</f>
-        <v>322.63417391304353</v>
+        <v>1292.8457956521738</v>
       </c>
       <c r="V9" s="9">
-        <f>U9-Sheet1!$K9</f>
-        <v>315.23597826086962</v>
+        <v>1316.5200130434782</v>
       </c>
       <c r="W9" s="9">
-        <f>V9-Sheet1!$K9</f>
-        <v>307.8377826086957</v>
+        <v>1340.1942304347824</v>
       </c>
       <c r="X9" s="9">
-        <f>W9-Sheet1!$K9</f>
-        <v>300.43958695652179</v>
+        <v>1363.868447826087</v>
       </c>
       <c r="Y9" s="9">
-        <f>X9-Sheet1!$K9</f>
-        <v>293.04139130434788</v>
+        <v>1387.5426652173912</v>
       </c>
       <c r="Z9" s="9">
-        <f>Y9-Sheet1!$K9</f>
-        <v>285.64319565217397</v>
+        <v>1411.2168826086956</v>
       </c>
       <c r="AA9" s="9">
-        <f>Z9-Sheet1!$K9</f>
-        <v>278.24500000000006</v>
+        <v>1434.8910999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="9">
-        <f>AA7</f>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="E10" s="12">
-        <f>D10</f>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:AA10" si="0">E10</f>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="L10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="N10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="Q10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="R10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="X10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="Y10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="Z10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" si="0"/>
-        <v>417.36759999999975</v>
+        <v>1434.8910999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9">
-        <f>AA8</f>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" ref="E11:AA11" si="1">D11</f>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="P11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="Q11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="R11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="S11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="T11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="U11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="V11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="W11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="Y11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="Z11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
-      <c r="AA11" s="12">
-        <f t="shared" si="1"/>
-        <v>194.77150000000023</v>
-      </c>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9">
-        <f>AA9</f>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" ref="E12:AA12" si="2">D12</f>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="P12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="S12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="T12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="U12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="V12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="W12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="Y12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="Z12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
-      <c r="AA12" s="12">
-        <f t="shared" si="2"/>
-        <v>278.24500000000006</v>
-      </c>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9">
-        <f>Sheet1!J7</f>
-        <v>417.36759999999998</v>
-      </c>
-      <c r="E13" s="9">
-        <f>D13+Sheet1!$K7</f>
-        <v>428.4648869565217</v>
-      </c>
-      <c r="F13" s="9">
-        <f>E13+Sheet1!$K7</f>
-        <v>439.56217391304341</v>
-      </c>
-      <c r="G13" s="9">
-        <f>F13+Sheet1!$K7</f>
-        <v>450.65946086956512</v>
-      </c>
-      <c r="H13" s="9">
-        <f>G13+Sheet1!$K7</f>
-        <v>461.75674782608684</v>
-      </c>
-      <c r="I13" s="9">
-        <f>H13+Sheet1!$K7</f>
-        <v>472.85403478260855</v>
-      </c>
-      <c r="J13" s="9">
-        <f>I13+Sheet1!$K7</f>
-        <v>483.95132173913026</v>
-      </c>
-      <c r="K13" s="9">
-        <f>J13+Sheet1!$K7</f>
-        <v>495.04860869565198</v>
-      </c>
-      <c r="L13" s="9">
-        <f>K13+Sheet1!$K7</f>
-        <v>506.14589565217369</v>
-      </c>
-      <c r="M13" s="9">
-        <f>L13+Sheet1!$K7</f>
-        <v>517.24318260869541</v>
-      </c>
-      <c r="N13" s="9">
-        <f>M13+Sheet1!$K7</f>
-        <v>528.34046956521718</v>
-      </c>
-      <c r="O13" s="9">
-        <f>N13+Sheet1!$K7</f>
-        <v>539.43775652173895</v>
-      </c>
-      <c r="P13" s="9">
-        <f>O13+Sheet1!$K7</f>
-        <v>550.53504347826072</v>
-      </c>
-      <c r="Q13" s="9">
-        <f>P13+Sheet1!$K7</f>
-        <v>561.63233043478249</v>
-      </c>
-      <c r="R13" s="9">
-        <f>Q13+Sheet1!$K7</f>
-        <v>572.72961739130426</v>
-      </c>
-      <c r="S13" s="9">
-        <f>R13+Sheet1!$K7</f>
-        <v>583.82690434782603</v>
-      </c>
-      <c r="T13" s="9">
-        <f>S13+Sheet1!$K7</f>
-        <v>594.9241913043478</v>
-      </c>
-      <c r="U13" s="9">
-        <f>T13+Sheet1!$K7</f>
-        <v>606.02147826086957</v>
-      </c>
-      <c r="V13" s="9">
-        <f>U13+Sheet1!$K7</f>
-        <v>617.11876521739134</v>
-      </c>
-      <c r="W13" s="9">
-        <f>V13+Sheet1!$K7</f>
-        <v>628.21605217391311</v>
-      </c>
-      <c r="X13" s="9">
-        <f>W13+Sheet1!$K7</f>
-        <v>639.31333913043488</v>
-      </c>
-      <c r="Y13" s="9">
-        <f>X13+Sheet1!$K7</f>
-        <v>650.41062608695665</v>
-      </c>
-      <c r="Z13" s="9">
-        <f>Y13+Sheet1!$K7</f>
-        <v>661.50791304347842</v>
-      </c>
-      <c r="AA13" s="9">
-        <f>Z13+Sheet1!$K7</f>
-        <v>672.6052000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9">
-        <f>Sheet1!J8</f>
-        <v>194.7715</v>
-      </c>
-      <c r="E14" s="9">
-        <f>D14+Sheet1!$K8</f>
-        <v>199.9502347826087</v>
-      </c>
-      <c r="F14" s="9">
-        <f>E14+Sheet1!$K8</f>
-        <v>205.1289695652174</v>
-      </c>
-      <c r="G14" s="9">
-        <f>F14+Sheet1!$K8</f>
-        <v>210.3077043478261</v>
-      </c>
-      <c r="H14" s="9">
-        <f>G14+Sheet1!$K8</f>
-        <v>215.4864391304348</v>
-      </c>
-      <c r="I14" s="9">
-        <f>H14+Sheet1!$K8</f>
-        <v>220.6651739130435</v>
-      </c>
-      <c r="J14" s="9">
-        <f>I14+Sheet1!$K8</f>
-        <v>225.8439086956522</v>
-      </c>
-      <c r="K14" s="9">
-        <f>J14+Sheet1!$K8</f>
-        <v>231.0226434782609</v>
-      </c>
-      <c r="L14" s="9">
-        <f>K14+Sheet1!$K8</f>
-        <v>236.2013782608696</v>
-      </c>
-      <c r="M14" s="9">
-        <f>L14+Sheet1!$K8</f>
-        <v>241.3801130434783</v>
-      </c>
-      <c r="N14" s="9">
-        <f>M14+Sheet1!$K8</f>
-        <v>246.558847826087</v>
-      </c>
-      <c r="O14" s="9">
-        <f>N14+Sheet1!$K8</f>
-        <v>251.7375826086957</v>
-      </c>
-      <c r="P14" s="9">
-        <f>O14+Sheet1!$K8</f>
-        <v>256.9163173913044</v>
-      </c>
-      <c r="Q14" s="9">
-        <f>P14+Sheet1!$K8</f>
-        <v>262.09505217391307</v>
-      </c>
-      <c r="R14" s="9">
-        <f>Q14+Sheet1!$K8</f>
-        <v>267.27378695652175</v>
-      </c>
-      <c r="S14" s="9">
-        <f>R14+Sheet1!$K8</f>
-        <v>272.45252173913042</v>
-      </c>
-      <c r="T14" s="9">
-        <f>S14+Sheet1!$K8</f>
-        <v>277.63125652173909</v>
-      </c>
-      <c r="U14" s="9">
-        <f>T14+Sheet1!$K8</f>
-        <v>282.80999130434776</v>
-      </c>
-      <c r="V14" s="9">
-        <f>U14+Sheet1!$K8</f>
-        <v>287.98872608695643</v>
-      </c>
-      <c r="W14" s="9">
-        <f>V14+Sheet1!$K8</f>
-        <v>293.1674608695651</v>
-      </c>
-      <c r="X14" s="9">
-        <f>W14+Sheet1!$K8</f>
-        <v>298.34619565217378</v>
-      </c>
-      <c r="Y14" s="9">
-        <f>X14+Sheet1!$K8</f>
-        <v>303.52493043478245</v>
-      </c>
-      <c r="Z14" s="9">
-        <f>Y14+Sheet1!$K8</f>
-        <v>308.70366521739112</v>
-      </c>
-      <c r="AA14" s="9">
-        <f>Z14+Sheet1!$K8</f>
-        <v>313.88239999999979</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9">
-        <f>Sheet1!J9</f>
-        <v>278.245</v>
-      </c>
-      <c r="E15" s="9">
-        <f>D15+Sheet1!$K9</f>
-        <v>285.64319565217392</v>
-      </c>
-      <c r="F15" s="9">
-        <f>E15+Sheet1!$K9</f>
-        <v>293.04139130434783</v>
-      </c>
-      <c r="G15" s="9">
-        <f>F15+Sheet1!$K9</f>
-        <v>300.43958695652174</v>
-      </c>
-      <c r="H15" s="9">
-        <f>G15+Sheet1!$K9</f>
-        <v>307.83778260869565</v>
-      </c>
-      <c r="I15" s="9">
-        <f>H15+Sheet1!$K9</f>
-        <v>315.23597826086956</v>
-      </c>
-      <c r="J15" s="9">
-        <f>I15+Sheet1!$K9</f>
-        <v>322.63417391304347</v>
-      </c>
-      <c r="K15" s="9">
-        <f>J15+Sheet1!$K9</f>
-        <v>330.03236956521738</v>
-      </c>
-      <c r="L15" s="9">
-        <f>K15+Sheet1!$K9</f>
-        <v>337.43056521739129</v>
-      </c>
-      <c r="M15" s="9">
-        <f>L15+Sheet1!$K9</f>
-        <v>344.8287608695652</v>
-      </c>
-      <c r="N15" s="9">
-        <f>M15+Sheet1!$K9</f>
-        <v>352.22695652173911</v>
-      </c>
-      <c r="O15" s="9">
-        <f>N15+Sheet1!$K9</f>
-        <v>359.62515217391302</v>
-      </c>
-      <c r="P15" s="9">
-        <f>O15+Sheet1!$K9</f>
-        <v>367.02334782608693</v>
-      </c>
-      <c r="Q15" s="9">
-        <f>P15+Sheet1!$K9</f>
-        <v>374.42154347826084</v>
-      </c>
-      <c r="R15" s="9">
-        <f>Q15+Sheet1!$K9</f>
-        <v>381.81973913043475</v>
-      </c>
-      <c r="S15" s="9">
-        <f>R15+Sheet1!$K9</f>
-        <v>389.21793478260867</v>
-      </c>
-      <c r="T15" s="9">
-        <f>S15+Sheet1!$K9</f>
-        <v>396.61613043478258</v>
-      </c>
-      <c r="U15" s="9">
-        <f>T15+Sheet1!$K9</f>
-        <v>404.01432608695649</v>
-      </c>
-      <c r="V15" s="9">
-        <f>U15+Sheet1!$K9</f>
-        <v>411.4125217391304</v>
-      </c>
-      <c r="W15" s="9">
-        <f>V15+Sheet1!$K9</f>
-        <v>418.81071739130431</v>
-      </c>
-      <c r="X15" s="9">
-        <f>W15+Sheet1!$K9</f>
-        <v>426.20891304347822</v>
-      </c>
-      <c r="Y15" s="9">
-        <f>X15+Sheet1!$K9</f>
-        <v>433.60710869565213</v>
-      </c>
-      <c r="Z15" s="9">
-        <f>Y15+Sheet1!$K9</f>
-        <v>441.00530434782604</v>
-      </c>
-      <c r="AA15" s="9">
-        <f>Z15+Sheet1!$K9</f>
-        <v>448.40349999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="9">
-        <f>Sheet1!I7</f>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" ref="E16:AA16" si="3">D16</f>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="L16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="M16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="N16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="O16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="P16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="Q16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="R16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="S16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="T16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="U16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="V16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="W16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="X16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="Y16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="Z16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-      <c r="AA16" s="12">
-        <f t="shared" si="3"/>
-        <v>672.60519999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9">
-        <f>Sheet1!I8</f>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" ref="E17:AA17" si="4">D17</f>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="K17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="L17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="M17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="N17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="O17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="P17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="Q17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="R17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="S17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="T17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="U17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="V17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="X17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="Y17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="Z17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="AA17" s="12">
-        <f t="shared" si="4"/>
-        <v>313.88240000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="9">
-        <f>Sheet1!I9</f>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" ref="E18:AA18" si="5">D18</f>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="K18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="L18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="M18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="N18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="O18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="P18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="Q18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="R18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="S18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="T18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="U18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="V18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="W18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="X18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="Y18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="Z18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="AA18" s="12">
-        <f t="shared" si="5"/>
-        <v>448.40350000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2298,23 +1390,23 @@
   <dimension ref="F7:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="7" spans="6:29" ht="15" x14ac:dyDescent="0.25">
       <c r="F7" s="11">
-        <f>MAX('Power Demand'!D7:AA7,'Power Demand'!D10:AA10,'Power Demand'!D13:AA13,'Power Demand'!D16:AA16)</f>
-        <v>672.6052000000002</v>
+        <f>MAX('Power Demand'!D7:AA7,'Power Demand'!D8:AA8,'Power Demand'!D9:AA9,'Power Demand'!D10:AA10)</f>
+        <v>1434.8910999999998</v>
       </c>
       <c r="G7" s="11">
-        <f>MIN('Power Demand'!D7:AA7,'Power Demand'!D10:AA10,'Power Demand'!D13:AA13,'Power Demand'!D16:AA16)</f>
-        <v>417.36759999999975</v>
+        <f>MIN('Power Demand'!D7:AA7,'Power Demand'!D8:AA8,'Power Demand'!D9:AA9,'Power Demand'!D10:AA10)</f>
+        <v>890.38409999999999</v>
       </c>
       <c r="H7" s="2">
         <f>(F7-G7)/23</f>
-        <v>11.097286956521758</v>
+        <v>23.674217391304342</v>
       </c>
       <c r="I7" s="2">
         <v>672.60519999999997</v>
@@ -2327,17 +1419,17 @@
       </c>
     </row>
     <row r="8" spans="6:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="F8" s="11">
-        <f>MAX('Power Demand'!D8:AA8,'Power Demand'!D11:AA11,'Power Demand'!D14:AA14,'Power Demand'!D17:AA17)</f>
-        <v>313.88240000000002</v>
-      </c>
-      <c r="G8" s="11">
-        <f>MIN('Power Demand'!D8:AA8,'Power Demand'!D11:AA11,'Power Demand'!D14:AA14,'Power Demand'!D17:AA17)</f>
-        <v>194.7715</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="11" t="e">
+        <f>MAX('Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="11" t="e">
+        <f>MIN('Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="2" t="e">
         <f>(F8-G8)/23</f>
-        <v>5.1787347826086965</v>
+        <v>#REF!</v>
       </c>
       <c r="I8" s="2">
         <v>313.88240000000002</v>
@@ -2350,17 +1442,17 @@
       </c>
     </row>
     <row r="9" spans="6:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="F9" s="11">
-        <f>MAX('Power Demand'!D9:AA9,'Power Demand'!D12:AA12,'Power Demand'!D15:AA15,'Power Demand'!D18:AA18)</f>
-        <v>448.40350000000001</v>
-      </c>
-      <c r="G9" s="11">
-        <f>MIN('Power Demand'!D9:AA9,'Power Demand'!D12:AA12,'Power Demand'!D15:AA15,'Power Demand'!D18:AA18)</f>
-        <v>278.245</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="F9" s="11" t="e">
+        <f>MAX('Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="11" t="e">
+        <f>MIN('Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!,'Power Demand'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="2" t="e">
         <f>(F9-G9)/23</f>
-        <v>7.3981956521739134</v>
+        <v>#REF!</v>
       </c>
       <c r="I9" s="2">
         <v>448.40350000000001</v>
@@ -2374,393 +1466,393 @@
     </row>
     <row r="16" spans="6:29" ht="15" x14ac:dyDescent="0.25">
       <c r="F16" s="11">
-        <f>SUM('Power Demand'!D7:D9)</f>
+        <f>SUM('Power Demand'!D7:D7)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="G16" s="11">
-        <f>SUM('Power Demand'!E7:E9)</f>
+        <f>SUM('Power Demand'!E7:E7)</f>
         <v>1411.2168826086956</v>
       </c>
       <c r="H16" s="11">
-        <f>SUM('Power Demand'!F7:F9)</f>
+        <f>SUM('Power Demand'!F7:F7)</f>
         <v>1387.5426652173912</v>
       </c>
       <c r="I16" s="11">
-        <f>SUM('Power Demand'!G7:G9)</f>
+        <f>SUM('Power Demand'!G7:G7)</f>
         <v>1363.868447826087</v>
       </c>
       <c r="J16" s="11">
-        <f>SUM('Power Demand'!H7:H9)</f>
+        <f>SUM('Power Demand'!H7:H7)</f>
         <v>1340.1942304347826</v>
       </c>
       <c r="K16" s="11">
-        <f>SUM('Power Demand'!I7:I9)</f>
+        <f>SUM('Power Demand'!I7:I7)</f>
         <v>1316.5200130434782</v>
       </c>
       <c r="L16" s="11">
-        <f>SUM('Power Demand'!J7:J9)</f>
+        <f>SUM('Power Demand'!J7:J7)</f>
         <v>1292.8457956521738</v>
       </c>
       <c r="M16" s="11">
-        <f>SUM('Power Demand'!K7:K9)</f>
+        <f>SUM('Power Demand'!K7:K7)</f>
         <v>1269.1715782608696</v>
       </c>
       <c r="N16" s="11">
-        <f>SUM('Power Demand'!L7:L9)</f>
+        <f>SUM('Power Demand'!L7:L7)</f>
         <v>1245.497360869565</v>
       </c>
       <c r="O16" s="11">
-        <f>SUM('Power Demand'!M7:M9)</f>
+        <f>SUM('Power Demand'!M7:M7)</f>
         <v>1221.8231434782608</v>
       </c>
       <c r="P16" s="11">
-        <f>SUM('Power Demand'!N7:N9)</f>
+        <f>SUM('Power Demand'!N7:N7)</f>
         <v>1198.1489260869564</v>
       </c>
       <c r="Q16" s="11">
-        <f>SUM('Power Demand'!O7:O9)</f>
+        <f>SUM('Power Demand'!O7:O7)</f>
         <v>1174.4747086956522</v>
       </c>
       <c r="R16" s="11">
-        <f>SUM('Power Demand'!P7:P9)</f>
+        <f>SUM('Power Demand'!P7:P7)</f>
         <v>1150.8004913043478</v>
       </c>
       <c r="S16" s="11">
-        <f>SUM('Power Demand'!Q7:Q9)</f>
+        <f>SUM('Power Demand'!Q7:Q7)</f>
         <v>1127.1262739130434</v>
       </c>
       <c r="T16" s="11">
-        <f>SUM('Power Demand'!R7:R9)</f>
+        <f>SUM('Power Demand'!R7:R7)</f>
         <v>1103.452056521739</v>
       </c>
       <c r="U16" s="11">
-        <f>SUM('Power Demand'!S7:S9)</f>
+        <f>SUM('Power Demand'!S7:S7)</f>
         <v>1079.7778391304346</v>
       </c>
       <c r="V16" s="11">
-        <f>SUM('Power Demand'!T7:T9)</f>
+        <f>SUM('Power Demand'!T7:T7)</f>
         <v>1056.1036217391302</v>
       </c>
       <c r="W16" s="11">
-        <f>SUM('Power Demand'!U7:U9)</f>
+        <f>SUM('Power Demand'!U7:U7)</f>
         <v>1032.429404347826</v>
       </c>
       <c r="X16" s="11">
-        <f>SUM('Power Demand'!V7:V9)</f>
+        <f>SUM('Power Demand'!V7:V7)</f>
         <v>1008.7551869565217</v>
       </c>
       <c r="Y16" s="11">
-        <f>SUM('Power Demand'!W7:W9)</f>
+        <f>SUM('Power Demand'!W7:W7)</f>
         <v>985.0809695652174</v>
       </c>
       <c r="Z16" s="11">
-        <f>SUM('Power Demand'!X7:X9)</f>
+        <f>SUM('Power Demand'!X7:X7)</f>
         <v>961.40675217391299</v>
       </c>
       <c r="AA16" s="11">
-        <f>SUM('Power Demand'!Y7:Y9)</f>
+        <f>SUM('Power Demand'!Y7:Y7)</f>
         <v>937.73253478260858</v>
       </c>
       <c r="AB16" s="11">
-        <f>SUM('Power Demand'!Z7:Z9)</f>
+        <f>SUM('Power Demand'!Z7:Z7)</f>
         <v>914.0583173913044</v>
       </c>
       <c r="AC16" s="11">
-        <f>SUM('Power Demand'!AA7:AA9)</f>
+        <f>SUM('Power Demand'!AA7:AA7)</f>
         <v>890.38409999999999</v>
       </c>
     </row>
     <row r="17" spans="6:29" ht="15" x14ac:dyDescent="0.25">
       <c r="F17" s="11">
-        <f>SUM('Power Demand'!D10:D12)</f>
+        <f>SUM('Power Demand'!D8:D8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="G17" s="11">
-        <f>SUM('Power Demand'!E10:E12)</f>
+        <f>SUM('Power Demand'!E8:E8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="H17" s="11">
-        <f>SUM('Power Demand'!F10:F12)</f>
+        <f>SUM('Power Demand'!F8:F8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="I17" s="11">
-        <f>SUM('Power Demand'!G10:G12)</f>
+        <f>SUM('Power Demand'!G8:G8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="J17" s="11">
-        <f>SUM('Power Demand'!H10:H12)</f>
+        <f>SUM('Power Demand'!H8:H8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="K17" s="11">
-        <f>SUM('Power Demand'!I10:I12)</f>
+        <f>SUM('Power Demand'!I8:I8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="L17" s="11">
-        <f>SUM('Power Demand'!J10:J12)</f>
+        <f>SUM('Power Demand'!J8:J8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="M17" s="11">
-        <f>SUM('Power Demand'!K10:K12)</f>
+        <f>SUM('Power Demand'!K8:K8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="N17" s="11">
-        <f>SUM('Power Demand'!L10:L12)</f>
+        <f>SUM('Power Demand'!L8:L8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="O17" s="11">
-        <f>SUM('Power Demand'!M10:M12)</f>
+        <f>SUM('Power Demand'!M8:M8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="P17" s="11">
-        <f>SUM('Power Demand'!N10:N12)</f>
+        <f>SUM('Power Demand'!N8:N8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="Q17" s="11">
-        <f>SUM('Power Demand'!O10:O12)</f>
+        <f>SUM('Power Demand'!O8:O8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="R17" s="11">
-        <f>SUM('Power Demand'!P10:P12)</f>
+        <f>SUM('Power Demand'!P8:P8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="S17" s="11">
-        <f>SUM('Power Demand'!Q10:Q12)</f>
+        <f>SUM('Power Demand'!Q8:Q8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="T17" s="11">
-        <f>SUM('Power Demand'!R10:R12)</f>
+        <f>SUM('Power Demand'!R8:R8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="U17" s="11">
-        <f>SUM('Power Demand'!S10:S12)</f>
+        <f>SUM('Power Demand'!S8:S8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="V17" s="11">
-        <f>SUM('Power Demand'!T10:T12)</f>
+        <f>SUM('Power Demand'!T8:T8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="W17" s="11">
-        <f>SUM('Power Demand'!U10:U12)</f>
+        <f>SUM('Power Demand'!U8:U8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="X17" s="11">
-        <f>SUM('Power Demand'!V10:V12)</f>
+        <f>SUM('Power Demand'!V8:V8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="Y17" s="11">
-        <f>SUM('Power Demand'!W10:W12)</f>
+        <f>SUM('Power Demand'!W8:W8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="Z17" s="11">
-        <f>SUM('Power Demand'!X10:X12)</f>
+        <f>SUM('Power Demand'!X8:X8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="AA17" s="11">
-        <f>SUM('Power Demand'!Y10:Y12)</f>
+        <f>SUM('Power Demand'!Y8:Y8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="AB17" s="11">
-        <f>SUM('Power Demand'!Z10:Z12)</f>
+        <f>SUM('Power Demand'!Z8:Z8)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="AC17" s="11">
-        <f>SUM('Power Demand'!AA10:AA12)</f>
+        <f>SUM('Power Demand'!AA8:AA8)</f>
         <v>890.38409999999999</v>
       </c>
     </row>
     <row r="18" spans="6:29" ht="15" x14ac:dyDescent="0.25">
       <c r="F18" s="11">
-        <f>SUM('Power Demand'!D13:D15)</f>
+        <f>SUM('Power Demand'!D9:D9)</f>
         <v>890.38409999999999</v>
       </c>
       <c r="G18" s="11">
-        <f>SUM('Power Demand'!E13:E15)</f>
+        <f>SUM('Power Demand'!E9:E9)</f>
         <v>914.0583173913044</v>
       </c>
       <c r="H18" s="11">
-        <f>SUM('Power Demand'!F13:F15)</f>
+        <f>SUM('Power Demand'!F9:F9)</f>
         <v>937.73253478260858</v>
       </c>
       <c r="I18" s="11">
-        <f>SUM('Power Demand'!G13:G15)</f>
+        <f>SUM('Power Demand'!G9:G9)</f>
         <v>961.40675217391299</v>
       </c>
       <c r="J18" s="11">
-        <f>SUM('Power Demand'!H13:H15)</f>
+        <f>SUM('Power Demand'!H9:H9)</f>
         <v>985.08096956521729</v>
       </c>
       <c r="K18" s="11">
-        <f>SUM('Power Demand'!I13:I15)</f>
+        <f>SUM('Power Demand'!I9:I9)</f>
         <v>1008.7551869565216</v>
       </c>
       <c r="L18" s="11">
-        <f>SUM('Power Demand'!J13:J15)</f>
+        <f>SUM('Power Demand'!J9:J9)</f>
         <v>1032.429404347826</v>
       </c>
       <c r="M18" s="11">
-        <f>SUM('Power Demand'!K13:K15)</f>
+        <f>SUM('Power Demand'!K9:K9)</f>
         <v>1056.1036217391302</v>
       </c>
       <c r="N18" s="11">
-        <f>SUM('Power Demand'!L13:L15)</f>
+        <f>SUM('Power Demand'!L9:L9)</f>
         <v>1079.7778391304346</v>
       </c>
       <c r="O18" s="11">
-        <f>SUM('Power Demand'!M13:M15)</f>
+        <f>SUM('Power Demand'!M9:M9)</f>
         <v>1103.452056521739</v>
       </c>
       <c r="P18" s="11">
-        <f>SUM('Power Demand'!N13:N15)</f>
+        <f>SUM('Power Demand'!N9:N9)</f>
         <v>1127.1262739130434</v>
       </c>
       <c r="Q18" s="11">
-        <f>SUM('Power Demand'!O13:O15)</f>
+        <f>SUM('Power Demand'!O9:O9)</f>
         <v>1150.8004913043476</v>
       </c>
       <c r="R18" s="11">
-        <f>SUM('Power Demand'!P13:P15)</f>
+        <f>SUM('Power Demand'!P9:P9)</f>
         <v>1174.4747086956522</v>
       </c>
       <c r="S18" s="11">
-        <f>SUM('Power Demand'!Q13:Q15)</f>
+        <f>SUM('Power Demand'!Q9:Q9)</f>
         <v>1198.1489260869564</v>
       </c>
       <c r="T18" s="11">
-        <f>SUM('Power Demand'!R13:R15)</f>
+        <f>SUM('Power Demand'!R9:R9)</f>
         <v>1221.8231434782608</v>
       </c>
       <c r="U18" s="11">
-        <f>SUM('Power Demand'!S13:S15)</f>
+        <f>SUM('Power Demand'!S9:S9)</f>
         <v>1245.497360869565</v>
       </c>
       <c r="V18" s="11">
-        <f>SUM('Power Demand'!T13:T15)</f>
+        <f>SUM('Power Demand'!T9:T9)</f>
         <v>1269.1715782608694</v>
       </c>
       <c r="W18" s="11">
-        <f>SUM('Power Demand'!U13:U15)</f>
+        <f>SUM('Power Demand'!U9:U9)</f>
         <v>1292.8457956521738</v>
       </c>
       <c r="X18" s="11">
-        <f>SUM('Power Demand'!V13:V15)</f>
+        <f>SUM('Power Demand'!V9:V9)</f>
         <v>1316.5200130434782</v>
       </c>
       <c r="Y18" s="11">
-        <f>SUM('Power Demand'!W13:W15)</f>
+        <f>SUM('Power Demand'!W9:W9)</f>
         <v>1340.1942304347824</v>
       </c>
       <c r="Z18" s="11">
-        <f>SUM('Power Demand'!X13:X15)</f>
+        <f>SUM('Power Demand'!X9:X9)</f>
         <v>1363.868447826087</v>
       </c>
       <c r="AA18" s="11">
-        <f>SUM('Power Demand'!Y13:Y15)</f>
+        <f>SUM('Power Demand'!Y9:Y9)</f>
         <v>1387.5426652173912</v>
       </c>
       <c r="AB18" s="11">
-        <f>SUM('Power Demand'!Z13:Z15)</f>
+        <f>SUM('Power Demand'!Z9:Z9)</f>
         <v>1411.2168826086956</v>
       </c>
       <c r="AC18" s="11">
-        <f>SUM('Power Demand'!AA13:AA15)</f>
+        <f>SUM('Power Demand'!AA9:AA9)</f>
         <v>1434.8910999999998</v>
       </c>
     </row>
     <row r="19" spans="6:29" ht="15" x14ac:dyDescent="0.25">
       <c r="F19" s="11">
-        <f>SUM('Power Demand'!D16:D18)</f>
+        <f>SUM('Power Demand'!D10:D10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="G19" s="11">
-        <f>SUM('Power Demand'!E16:E18)</f>
+        <f>SUM('Power Demand'!E10:E10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="H19" s="11">
-        <f>SUM('Power Demand'!F16:F18)</f>
+        <f>SUM('Power Demand'!F10:F10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="I19" s="11">
-        <f>SUM('Power Demand'!G16:G18)</f>
+        <f>SUM('Power Demand'!G10:G10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="J19" s="11">
-        <f>SUM('Power Demand'!H16:H18)</f>
+        <f>SUM('Power Demand'!H10:H10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="K19" s="11">
-        <f>SUM('Power Demand'!I16:I18)</f>
+        <f>SUM('Power Demand'!I10:I10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="L19" s="11">
-        <f>SUM('Power Demand'!J16:J18)</f>
+        <f>SUM('Power Demand'!J10:J10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="M19" s="11">
-        <f>SUM('Power Demand'!K16:K18)</f>
+        <f>SUM('Power Demand'!K10:K10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="N19" s="11">
-        <f>SUM('Power Demand'!L16:L18)</f>
+        <f>SUM('Power Demand'!L10:L10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="O19" s="11">
-        <f>SUM('Power Demand'!M16:M18)</f>
+        <f>SUM('Power Demand'!M10:M10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="P19" s="11">
-        <f>SUM('Power Demand'!N16:N18)</f>
+        <f>SUM('Power Demand'!N10:N10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="Q19" s="11">
-        <f>SUM('Power Demand'!O16:O18)</f>
+        <f>SUM('Power Demand'!O10:O10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="R19" s="11">
-        <f>SUM('Power Demand'!P16:P18)</f>
+        <f>SUM('Power Demand'!P10:P10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="S19" s="11">
-        <f>SUM('Power Demand'!Q16:Q18)</f>
+        <f>SUM('Power Demand'!Q10:Q10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="T19" s="11">
-        <f>SUM('Power Demand'!R16:R18)</f>
+        <f>SUM('Power Demand'!R10:R10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="U19" s="11">
-        <f>SUM('Power Demand'!S16:S18)</f>
+        <f>SUM('Power Demand'!S10:S10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="V19" s="11">
-        <f>SUM('Power Demand'!T16:T18)</f>
+        <f>SUM('Power Demand'!T10:T10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="W19" s="11">
-        <f>SUM('Power Demand'!U16:U18)</f>
+        <f>SUM('Power Demand'!U10:U10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="X19" s="11">
-        <f>SUM('Power Demand'!V16:V18)</f>
+        <f>SUM('Power Demand'!V10:V10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="Y19" s="11">
-        <f>SUM('Power Demand'!W16:W18)</f>
+        <f>SUM('Power Demand'!W10:W10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="Z19" s="11">
-        <f>SUM('Power Demand'!X16:X18)</f>
+        <f>SUM('Power Demand'!X10:X10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="AA19" s="11">
-        <f>SUM('Power Demand'!Y16:Y18)</f>
+        <f>SUM('Power Demand'!Y10:Y10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="AB19" s="11">
-        <f>SUM('Power Demand'!Z16:Z18)</f>
+        <f>SUM('Power Demand'!Z10:Z10)</f>
         <v>1434.8910999999998</v>
       </c>
       <c r="AC19" s="11">
-        <f>SUM('Power Demand'!AA16:AA18)</f>
+        <f>SUM('Power Demand'!AA10:AA10)</f>
         <v>1434.8910999999998</v>
       </c>
     </row>
@@ -2770,12 +1862,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2925,15 +2014,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2957,17 +2057,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/markov/Power_Demand.xlsx
+++ b/data/markov/Power_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7098EFB4-8B8D-4D2E-9699-AD781647DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80144F91-C16D-4BE7-B064-AE3F5C081DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Demand" sheetId="4" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>rp01</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>[MWh]</t>
+  </si>
+  <si>
+    <t>rp05</t>
+  </si>
+  <si>
+    <t>rp06</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
   <dimension ref="B1:AB17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,59 +1264,193 @@
       <c r="R10" s="12">
         <v>1434.8910999999998</v>
       </c>
-      <c r="S10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="T10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="U10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="V10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="W10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="X10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>1434.8910999999998</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>1434.8910999999998</v>
+      <c r="S10" s="9">
+        <v>1400</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1350</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1300</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1250</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1200</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1150</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>1100</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>1050</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="E11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="G11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="H11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="I11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="J11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="K11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="L11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="M11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="N11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="O11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="P11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="R11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="S11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="T11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="U11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="V11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="W11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="X11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>890.38409999999999</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>890.38409999999999</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1050</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1150</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1250</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1350</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1400</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="T12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="V12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="X12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1434.8910999999998</v>
+      </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D16" s="11"/>
@@ -1821,39 +1961,39 @@
       </c>
       <c r="U19" s="11">
         <f>SUM('Power Demand'!S10:S10)</f>
-        <v>1434.8910999999998</v>
+        <v>1400</v>
       </c>
       <c r="V19" s="11">
         <f>SUM('Power Demand'!T10:T10)</f>
-        <v>1434.8910999999998</v>
+        <v>1350</v>
       </c>
       <c r="W19" s="11">
         <f>SUM('Power Demand'!U10:U10)</f>
-        <v>1434.8910999999998</v>
+        <v>1300</v>
       </c>
       <c r="X19" s="11">
         <f>SUM('Power Demand'!V10:V10)</f>
-        <v>1434.8910999999998</v>
+        <v>1250</v>
       </c>
       <c r="Y19" s="11">
         <f>SUM('Power Demand'!W10:W10)</f>
-        <v>1434.8910999999998</v>
+        <v>1200</v>
       </c>
       <c r="Z19" s="11">
         <f>SUM('Power Demand'!X10:X10)</f>
-        <v>1434.8910999999998</v>
+        <v>1150</v>
       </c>
       <c r="AA19" s="11">
         <f>SUM('Power Demand'!Y10:Y10)</f>
-        <v>1434.8910999999998</v>
+        <v>1100</v>
       </c>
       <c r="AB19" s="11">
         <f>SUM('Power Demand'!Z10:Z10)</f>
-        <v>1434.8910999999998</v>
+        <v>1050</v>
       </c>
       <c r="AC19" s="11">
         <f>SUM('Power Demand'!AA10:AA10)</f>
-        <v>1434.8910999999998</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1862,9 +2002,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2014,26 +2157,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2057,9 +2189,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/markov/Power_Demand.xlsx
+++ b/data/markov/Power_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE50266-265D-440E-9936-600CDDAAE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83D01F-54D3-4569-9E9D-BCB42695FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="4" r:id="rId1"/>
@@ -899,10 +899,10 @@
   <dimension ref="B1:AD14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,76 +1347,76 @@
         <v>56</v>
       </c>
       <c r="G8" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="H8" s="11">
-        <v>1411.2168826086956</v>
+        <v>1397.1047137826088</v>
       </c>
       <c r="I8" s="11">
-        <v>1387.5426652173912</v>
+        <v>1373.6672385652173</v>
       </c>
       <c r="J8" s="11">
-        <v>1363.868447826087</v>
+        <v>1350.2297633478261</v>
       </c>
       <c r="K8" s="11">
-        <v>1340.1942304347826</v>
+        <v>1326.7922881304348</v>
       </c>
       <c r="L8" s="11">
-        <v>1316.5200130434782</v>
+        <v>1303.3548129130434</v>
       </c>
       <c r="M8" s="11">
-        <v>1292.8457956521738</v>
+        <v>1279.9173376956521</v>
       </c>
       <c r="N8" s="11">
-        <v>1269.1715782608696</v>
+        <v>1256.4798624782609</v>
       </c>
       <c r="O8" s="11">
-        <v>1245.497360869565</v>
+        <v>1233.0423872608694</v>
       </c>
       <c r="P8" s="11">
-        <v>1221.8231434782608</v>
+        <v>1209.6049120434782</v>
       </c>
       <c r="Q8" s="11">
-        <v>1198.1489260869564</v>
+        <v>1186.1674368260869</v>
       </c>
       <c r="R8" s="11">
-        <v>1174.4747086956522</v>
+        <v>1162.7299616086957</v>
       </c>
       <c r="S8" s="11">
-        <v>1150.8004913043478</v>
+        <v>1139.2924863913042</v>
       </c>
       <c r="T8" s="11">
-        <v>1127.1262739130434</v>
+        <v>1115.855011173913</v>
       </c>
       <c r="U8" s="11">
-        <v>1103.452056521739</v>
+        <v>1092.4175359565215</v>
       </c>
       <c r="V8" s="11">
-        <v>1079.7778391304346</v>
+        <v>1068.9800607391303</v>
       </c>
       <c r="W8" s="11">
-        <v>1056.1036217391302</v>
+        <v>1045.5425855217388</v>
       </c>
       <c r="X8" s="11">
-        <v>1032.429404347826</v>
+        <v>1022.1051103043477</v>
       </c>
       <c r="Y8" s="11">
-        <v>1008.7551869565217</v>
+        <v>998.66763508695647</v>
       </c>
       <c r="Z8" s="11">
-        <v>985.0809695652174</v>
+        <v>975.23015986956523</v>
       </c>
       <c r="AA8" s="11">
-        <v>961.40675217391299</v>
+        <v>951.79268465217388</v>
       </c>
       <c r="AB8" s="11">
-        <v>937.73253478260858</v>
+        <v>928.35520943478252</v>
       </c>
       <c r="AC8" s="11">
-        <v>914.0583173913044</v>
+        <v>904.9177342173914</v>
       </c>
       <c r="AD8" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
@@ -1434,76 +1434,76 @@
         <v>56</v>
       </c>
       <c r="G9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="H9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="I9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="J9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="K9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="L9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="M9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="N9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="O9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="P9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="Q9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="R9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="S9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="T9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="U9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="V9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="W9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="X9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="Y9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="Z9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AA9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AB9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AC9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AD9" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
@@ -1521,76 +1521,76 @@
         <v>56</v>
       </c>
       <c r="G10" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="H10" s="11">
-        <v>914.0583173913044</v>
+        <v>904.9177342173914</v>
       </c>
       <c r="I10" s="11">
-        <v>937.73253478260858</v>
+        <v>928.35520943478252</v>
       </c>
       <c r="J10" s="11">
-        <v>961.40675217391299</v>
+        <v>951.79268465217388</v>
       </c>
       <c r="K10" s="11">
-        <v>985.08096956521729</v>
+        <v>975.23015986956511</v>
       </c>
       <c r="L10" s="11">
-        <v>1008.7551869565216</v>
+        <v>998.66763508695635</v>
       </c>
       <c r="M10" s="11">
-        <v>1032.429404347826</v>
+        <v>1022.1051103043477</v>
       </c>
       <c r="N10" s="11">
-        <v>1056.1036217391302</v>
+        <v>1045.5425855217388</v>
       </c>
       <c r="O10" s="11">
-        <v>1079.7778391304346</v>
+        <v>1068.9800607391303</v>
       </c>
       <c r="P10" s="11">
-        <v>1103.452056521739</v>
+        <v>1092.4175359565215</v>
       </c>
       <c r="Q10" s="11">
-        <v>1127.1262739130434</v>
+        <v>1115.855011173913</v>
       </c>
       <c r="R10" s="11">
-        <v>1150.8004913043476</v>
+        <v>1139.292486391304</v>
       </c>
       <c r="S10" s="11">
-        <v>1174.4747086956522</v>
+        <v>1162.7299616086957</v>
       </c>
       <c r="T10" s="11">
-        <v>1198.1489260869564</v>
+        <v>1186.1674368260869</v>
       </c>
       <c r="U10" s="11">
-        <v>1221.8231434782608</v>
+        <v>1209.6049120434782</v>
       </c>
       <c r="V10" s="11">
-        <v>1245.497360869565</v>
+        <v>1233.0423872608694</v>
       </c>
       <c r="W10" s="11">
-        <v>1269.1715782608694</v>
+        <v>1256.4798624782607</v>
       </c>
       <c r="X10" s="11">
-        <v>1292.8457956521738</v>
+        <v>1279.9173376956521</v>
       </c>
       <c r="Y10" s="11">
-        <v>1316.5200130434782</v>
+        <v>1303.3548129130434</v>
       </c>
       <c r="Z10" s="11">
-        <v>1340.1942304347824</v>
+        <v>1326.7922881304346</v>
       </c>
       <c r="AA10" s="11">
-        <v>1363.868447826087</v>
+        <v>1350.2297633478261</v>
       </c>
       <c r="AB10" s="11">
-        <v>1387.5426652173912</v>
+        <v>1373.6672385652173</v>
       </c>
       <c r="AC10" s="11">
-        <v>1411.2168826086956</v>
+        <v>1397.1047137826088</v>
       </c>
       <c r="AD10" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
@@ -1608,76 +1608,76 @@
         <v>56</v>
       </c>
       <c r="G11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="H11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="I11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="J11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="K11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="L11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="M11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="N11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="O11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="P11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="Q11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="R11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="S11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="T11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="U11" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="V11" s="11">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="W11" s="11">
-        <v>1350</v>
+        <v>1336.5</v>
       </c>
       <c r="X11" s="11">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="Y11" s="11">
-        <v>1250</v>
+        <v>1237.5</v>
       </c>
       <c r="Z11" s="11">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="AA11" s="11">
-        <v>1150</v>
+        <v>1138.5</v>
       </c>
       <c r="AB11" s="11">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="AC11" s="11">
-        <v>1050</v>
+        <v>1039.5</v>
       </c>
       <c r="AD11" s="11">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
@@ -1695,76 +1695,76 @@
         <v>56</v>
       </c>
       <c r="G12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="H12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="I12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="J12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="K12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="L12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="M12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="N12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="O12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="P12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="Q12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="R12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="S12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="T12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="U12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="V12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="W12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="X12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="Y12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="Z12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AA12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AB12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AC12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
       <c r="AD12" s="11">
-        <v>890.38409999999999</v>
+        <v>881.48025899999993</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
@@ -1782,76 +1782,76 @@
         <v>56</v>
       </c>
       <c r="G13" s="11">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H13" s="11">
-        <v>1050</v>
+        <v>1039.5</v>
       </c>
       <c r="I13" s="11">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="J13" s="11">
-        <v>1150</v>
+        <v>1138.5</v>
       </c>
       <c r="K13" s="11">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="L13" s="11">
-        <v>1250</v>
+        <v>1237.5</v>
       </c>
       <c r="M13" s="11">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="N13" s="11">
-        <v>1350</v>
+        <v>1336.5</v>
       </c>
       <c r="O13" s="11">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="P13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="Q13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="R13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="S13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="T13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="U13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="V13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="W13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="X13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="Y13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="Z13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="AA13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="AB13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="AC13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
       <c r="AD13" s="11">
-        <v>1434.8910999999998</v>
+        <v>1420.5421889999998</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
@@ -1875,6 +1875,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2020,12 +2026,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2036,6 +2036,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2053,22 +2069,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>

--- a/data/markov/Power_Demand.xlsx
+++ b/data/markov/Power_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339749D1-73BD-4C21-9FFC-659294B5C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE1EBAD-D1CB-4339-9985-494CAD1BF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50205" yWindow="-21690" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -329,7 +329,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -456,7 +456,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2298,11 +2298,11 @@
   </sheetPr>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3135,7 +3135,7 @@
         <v>1000</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" ref="I11:AD12" si="3">IF(I2="x",H11-($G$1-$I$1)/COUNTIF($G$2:$AD$2,"x"),H11)</f>
+        <f t="shared" ref="I11:AD11" si="3">IF(I2="x",H11-($G$1-$I$1)/COUNTIF($G$2:$AD$2,"x"),H11)</f>
         <v>1000</v>
       </c>
       <c r="J11" s="14">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="14">
-        <f t="shared" ref="T12:AB12" si="5">IF(T2="x",U12-($I$1-$H$1)/COUNTIF($G$2:$AD$2,"x"),U12)</f>
+        <f t="shared" ref="T12:Y12" si="5">IF(T2="x",U12-($I$1-$H$1)/COUNTIF($G$2:$AD$2,"x"),U12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="14">

--- a/data/markov/Power_Demand.xlsx
+++ b/data/markov/Power_Demand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\markov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE1EBAD-D1CB-4339-9985-494CAD1BF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221A390-4F10-43C5-88C7-C25949C06680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50205" yWindow="-21690" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,16 +825,16 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>766.66666666666663</c:v>
+                  <c:v>733.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>533.33333333333326</c:v>
+                  <c:v>466.66666666666657</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>299.99999999999989</c:v>
+                  <c:v>199.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="0">
-                  <c:v>66.666666666666544</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>0</c:v>
@@ -903,16 +903,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>66.666666666666544</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="0">
-                  <c:v>299.99999999999989</c:v>
+                  <c:v>199.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>533.33333333333326</c:v>
+                  <c:v>466.66666666666657</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>766.66666666666663</c:v>
+                  <c:v>733.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>1000</c:v>
@@ -2302,7 +2302,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3212,15 +3212,15 @@
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="3"/>
-        <v>766.66666666666663</v>
+        <v>733.33333333333326</v>
       </c>
       <c r="AC11" s="14">
         <f t="shared" si="3"/>
-        <v>533.33333333333326</v>
+        <v>466.66666666666657</v>
       </c>
       <c r="AD11" s="14">
         <f t="shared" si="3"/>
-        <v>299.99999999999989</v>
+        <v>199.99999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.4">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G12" s="14">
         <f>MAX(AD11-($G$1-$I$1)/COUNTIF($G$2:$AD$2,"x"),0)</f>
-        <v>66.666666666666544</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
         <f>MAX(G12-($G$1-$I$1)/COUNTIF($G$2:$AD$2,"x"),0)</f>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="AD12" s="14">
         <f>G12</f>
-        <v>66.666666666666544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.4">
@@ -3350,15 +3350,15 @@
       </c>
       <c r="G13" s="14">
         <f t="shared" ref="G13:AB13" si="6">IF(G2="a",H13-($G$1-$I$1)/COUNTIF($G$2:$AD$2,"a"),H13)</f>
-        <v>299.99999999999989</v>
+        <v>199.99999999999989</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="6"/>
-        <v>533.33333333333326</v>
+        <v>466.66666666666657</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" si="6"/>
-        <v>766.66666666666663</v>
+        <v>733.33333333333326</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="6"/>
@@ -3942,23 +3942,23 @@
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B95">
-        <v>766.66666666666663</v>
+        <v>733.33333333333326</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B96">
-        <v>533.33333333333326</v>
+        <v>466.66666666666657</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B97">
-        <v>299.99999999999989</v>
+        <v>199.99999999999989</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B98" s="15" cm="1">
         <f t="array" ref="B98:B121">TRANSPOSE(ScenarioA!G12:AD12)</f>
-        <v>66.666666666666544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.4">
@@ -4073,23 +4073,23 @@
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B121">
-        <v>66.666666666666544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B122" s="15" cm="1">
         <f t="array" ref="B122:B145">TRANSPOSE(ScenarioA!G13:AD13)</f>
-        <v>299.99999999999989</v>
+        <v>199.99999999999989</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B123">
-        <v>533.33333333333326</v>
+        <v>466.66666666666657</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B124">
-        <v>766.66666666666663</v>
+        <v>733.33333333333326</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.4">
